--- a/medicine/Psychotrope/Craigellachie_(distillerie)/Craigellachie_(distillerie).xlsx
+++ b/medicine/Psychotrope/Craigellachie_(distillerie)/Craigellachie_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Craigellachie est une distillerie de whisky située dans le village de Craigellachie dans le Speyside, en Écosse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie fut construite en 1891 par la société Craigellachie-Glenlivet Distillery Company. En 1916 elle fut reprise par Mackie &amp; Company Distillers Ltd., les propriétaires de la marque White Horse. En 1927 White Horse Distillers fut reprise par Distillers Company Limited (DCL) et, en 1930, Craigellachie devint la propriété de la société Scottish Malt Distillers (SMD).
 En 1964 la distillerie fut rénovée et le nombre de Stills passa de deux à quatre.
@@ -545,7 +559,9 @@
           <t>Embouteillage officiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Craigellachie 1989 43 %
 Craigellachie Single Malt
